--- a/BEMFSimulation/ExcelResults/PhaseVoltage2000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage2000.xlsx
@@ -408,13 +408,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>1.468524338761767</v>
+        <v>2.054230710822336</v>
       </c>
       <c r="C2">
-        <v>131.5222077835207</v>
+        <v>133.332196031372</v>
       </c>
       <c r="D2">
-        <v>-138.5053004420124</v>
+        <v>-141.8289007643024</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B3">
-        <v>8.346470506704451</v>
+        <v>8.384809851542386</v>
       </c>
       <c r="C3">
-        <v>125.4932084687435</v>
+        <v>128.8135336615881</v>
       </c>
       <c r="D3">
-        <v>-136.8706572365069</v>
+        <v>-141.8992563128821</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.00025</v>
       </c>
       <c r="B4">
-        <v>24.93139671671873</v>
+        <v>24.80760530814641</v>
       </c>
       <c r="C4">
-        <v>115.2370533136412</v>
+        <v>120.6143640290422</v>
       </c>
       <c r="D4">
-        <v>-131.2957086977653</v>
+        <v>-136.1366845679154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B5">
-        <v>44.85556596129026</v>
+        <v>45.21082928275605</v>
       </c>
       <c r="C5">
-        <v>99.9069447800352</v>
+        <v>99.20262420184568</v>
       </c>
       <c r="D5">
-        <v>-126.877201481607</v>
+        <v>-128.1403542512217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B6">
-        <v>56.55144584985295</v>
+        <v>59.06166282145215</v>
       </c>
       <c r="C6">
-        <v>83.08525911088184</v>
+        <v>84.65021834881848</v>
       </c>
       <c r="D6">
-        <v>-130.4141552928914</v>
+        <v>-135.497963570002</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0005</v>
       </c>
       <c r="B7">
-        <v>61.18971003097074</v>
+        <v>62.73529539101347</v>
       </c>
       <c r="C7">
-        <v>73.02185069017153</v>
+        <v>75.6425784210743</v>
       </c>
       <c r="D7">
-        <v>-133.7025427949555</v>
+        <v>-138.1439569967239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B8">
-        <v>66.33540551062067</v>
+        <v>66.4057283975289</v>
       </c>
       <c r="C8">
-        <v>69.56035582915088</v>
+        <v>71.23339320644794</v>
       </c>
       <c r="D8">
-        <v>-138.0321913409579</v>
+        <v>-139.5001217114434</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B9">
-        <v>69.6163054188591</v>
+        <v>70.80057061640721</v>
       </c>
       <c r="C9">
-        <v>66.55182211252253</v>
+        <v>67.09470352433439</v>
       </c>
       <c r="D9">
-        <v>-138.5184275283786</v>
+        <v>-139.7726406407269</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0007500000000000001</v>
       </c>
       <c r="B10">
-        <v>72.94022655779608</v>
+        <v>75.33541879347128</v>
       </c>
       <c r="C10">
-        <v>61.2656303319743</v>
+        <v>62.23214895473701</v>
       </c>
       <c r="D10">
-        <v>-134.1599430148794</v>
+        <v>-137.1288711223935</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0008333333333333335</v>
       </c>
       <c r="B11">
-        <v>82.91208755385904</v>
+        <v>85.7471446313174</v>
       </c>
       <c r="C11">
-        <v>56.72614488135963</v>
+        <v>59.44118528182718</v>
       </c>
       <c r="D11">
-        <v>-130.9197989976012</v>
+        <v>-137.5875938324915</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0009166666666666669</v>
       </c>
       <c r="B12">
-        <v>99.84400993373299</v>
+        <v>100.7969415599594</v>
       </c>
       <c r="C12">
-        <v>45.02737827454317</v>
+        <v>44.40425912650065</v>
       </c>
       <c r="D12">
-        <v>-127.2801108223943</v>
+        <v>-129.6883957124779</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001</v>
       </c>
       <c r="B13">
-        <v>115.0086993173615</v>
+        <v>118.0336651491495</v>
       </c>
       <c r="C13">
-        <v>25.26940190030458</v>
+        <v>24.57706711381541</v>
       </c>
       <c r="D13">
-        <v>-131.4392312873053</v>
+        <v>-134.2917968474722</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B14">
-        <v>125.4293772206706</v>
+        <v>130.29252433352</v>
       </c>
       <c r="C14">
-        <v>8.570022455259174</v>
+        <v>8.450783344797486</v>
       </c>
       <c r="D14">
-        <v>-136.6405589608356</v>
+        <v>-141.7426004319257</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B15">
-        <v>131.2855399512433</v>
+        <v>132.6089138452992</v>
       </c>
       <c r="C15">
-        <v>1.601410476589016</v>
+        <v>2.240452683053562</v>
       </c>
       <c r="D15">
-        <v>-137.9484440365782</v>
+        <v>-140.8024629394361</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.00125</v>
       </c>
       <c r="B16">
-        <v>138.121809314214</v>
+        <v>139.8765656698312</v>
       </c>
       <c r="C16">
-        <v>-0.004290671464124429</v>
+        <v>0.03880981058718147</v>
       </c>
       <c r="D16">
-        <v>-137.9097770994618</v>
+        <v>-140.3537979316616</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B17">
-        <v>138.1588923584094</v>
+        <v>141.0679641536304</v>
       </c>
       <c r="C17">
-        <v>-1.487633849030945</v>
+        <v>-1.969142217611852</v>
       </c>
       <c r="D17">
-        <v>-131.5811929635077</v>
+        <v>-133.3570379872567</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001416666666666667</v>
       </c>
       <c r="B18">
-        <v>136.5600608945508</v>
+        <v>142.1145966937233</v>
       </c>
       <c r="C18">
-        <v>-8.252678414228498</v>
+        <v>-8.173018095004871</v>
       </c>
       <c r="D18">
-        <v>-125.4735053936916</v>
+        <v>-129.11088393458</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0015</v>
       </c>
       <c r="B19">
-        <v>131.6421642256541</v>
+        <v>136.9134168663224</v>
       </c>
       <c r="C19">
-        <v>-24.82143058446662</v>
+        <v>-24.67919790253598</v>
       </c>
       <c r="D19">
-        <v>-115.4492569621975</v>
+        <v>-120.5596824669591</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B20">
-        <v>127.3429472740152</v>
+        <v>129.1557843792575</v>
       </c>
       <c r="C20">
-        <v>-44.87896438182037</v>
+        <v>-44.76591124863761</v>
       </c>
       <c r="D20">
-        <v>-99.9813978122105</v>
+        <v>-99.32487938348473</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B21">
-        <v>130.7724137140257</v>
+        <v>136.294797060893</v>
       </c>
       <c r="C21">
-        <v>-56.64644542961539</v>
+        <v>-58.96091163513279</v>
       </c>
       <c r="D21">
-        <v>-83.09432308797005</v>
+        <v>-85.03935545448427</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.00175</v>
       </c>
       <c r="B22">
-        <v>133.9661961660069</v>
+        <v>138.0863254083563</v>
       </c>
       <c r="C22">
-        <v>-61.1756810722367</v>
+        <v>-62.82104473093687</v>
       </c>
       <c r="D22">
-        <v>-73.14640869304978</v>
+        <v>-75.9830889439192</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001833333333333333</v>
       </c>
       <c r="B23">
-        <v>138.0887757748926</v>
+        <v>139.5041844633403</v>
       </c>
       <c r="C23">
-        <v>-66.33137939497979</v>
+        <v>-66.80150821226555</v>
       </c>
       <c r="D23">
-        <v>-69.65385620129162</v>
+        <v>-71.1995522922726</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B24">
-        <v>138.3691311192577</v>
+        <v>140.3630070304934</v>
       </c>
       <c r="C24">
-        <v>-69.62949504702443</v>
+        <v>-71.19983286718008</v>
       </c>
       <c r="D24">
-        <v>-66.50857103484186</v>
+        <v>-66.95419009190796</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002</v>
       </c>
       <c r="B25">
-        <v>134.3333003596568</v>
+        <v>137.6386904472106</v>
       </c>
       <c r="C25">
-        <v>-73.04375067747648</v>
+        <v>-75.32697768066227</v>
       </c>
       <c r="D25">
-        <v>-61.20448404528833</v>
+        <v>-62.27587830026083</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B26">
-        <v>131.270769914934</v>
+        <v>137.4443546782414</v>
       </c>
       <c r="C26">
-        <v>-82.99069301083684</v>
+        <v>-85.31390849921218</v>
       </c>
       <c r="D26">
-        <v>-56.7589327845991</v>
+        <v>-59.63094363704264</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B27">
-        <v>127.7430735488945</v>
+        <v>129.0404395234889</v>
       </c>
       <c r="C27">
-        <v>-99.88322948363037</v>
+        <v>-100.47073533966</v>
       </c>
       <c r="D27">
-        <v>-45.08418460988284</v>
+        <v>-44.96866538161671</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.002249999999999999</v>
       </c>
       <c r="B28">
-        <v>132.0577587484967</v>
+        <v>134.357928735394</v>
       </c>
       <c r="C28">
-        <v>-115.2552130138559</v>
+        <v>-118.3551438767089</v>
       </c>
       <c r="D28">
-        <v>-25.23072780442315</v>
+        <v>-24.736066284404</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.002333333333333333</v>
       </c>
       <c r="B29">
-        <v>136.9163540999352</v>
+        <v>142.54838684293</v>
       </c>
       <c r="C29">
-        <v>-125.6354718422022</v>
+        <v>-130.5856690169127</v>
       </c>
       <c r="D29">
-        <v>-8.478146527651665</v>
+        <v>-8.244703013975952</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B30">
-        <v>137.8765146309019</v>
+        <v>141.5545702806601</v>
       </c>
       <c r="C30">
-        <v>-131.3558626324231</v>
+        <v>-132.795800282996</v>
       </c>
       <c r="D30">
-        <v>-1.51655159835673</v>
+        <v>-2.040854124120695</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002499999999999999</v>
       </c>
       <c r="B31">
-        <v>137.7859978015691</v>
+        <v>139.89247954832</v>
       </c>
       <c r="C31">
-        <v>-138.0291033158887</v>
+        <v>-139.7491292324048</v>
       </c>
       <c r="D31">
-        <v>0.04967429844793259</v>
+        <v>0.04095744028237425</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002583333333333332</v>
       </c>
       <c r="B32">
-        <v>131.3881660559029</v>
+        <v>131.9534973313008</v>
       </c>
       <c r="C32">
-        <v>-138.1466751304536</v>
+        <v>-140.770923765056</v>
       </c>
       <c r="D32">
-        <v>1.504186274338681</v>
+        <v>1.872150879818346</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002666666666666666</v>
       </c>
       <c r="B33">
-        <v>125.2637445369463</v>
+        <v>128.4667422622711</v>
       </c>
       <c r="C33">
-        <v>-136.6209054315299</v>
+        <v>-141.9895507691618</v>
       </c>
       <c r="D33">
-        <v>8.27070322380108</v>
+        <v>8.014863394259221</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002749999999999999</v>
       </c>
       <c r="B34">
-        <v>115.273833840567</v>
+        <v>120.9861546326682</v>
       </c>
       <c r="C34">
-        <v>-131.6142667157119</v>
+        <v>-136.6895662488939</v>
       </c>
       <c r="D34">
-        <v>24.77141155837526</v>
+        <v>24.66635510593923</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002833333333333332</v>
       </c>
       <c r="B35">
-        <v>99.93655344492525</v>
+        <v>99.49725674379741</v>
       </c>
       <c r="C35">
-        <v>-127.2417696919804</v>
+        <v>-128.4617990015044</v>
       </c>
       <c r="D35">
-        <v>44.81720528232425</v>
+        <v>44.82578224995759</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002916666666666665</v>
       </c>
       <c r="B36">
-        <v>83.14939720986136</v>
+        <v>84.57436066078877</v>
       </c>
       <c r="C36">
-        <v>-130.6628447324388</v>
+        <v>-135.7539456194396</v>
       </c>
       <c r="D36">
-        <v>56.59047795245132</v>
+        <v>58.89325583191191</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002999999999999999</v>
       </c>
       <c r="B37">
-        <v>73.14027592988748</v>
+        <v>75.58855373741542</v>
       </c>
       <c r="C37">
-        <v>-134.0531252493573</v>
+        <v>-138.206050204657</v>
       </c>
       <c r="D37">
-        <v>61.21725791116572</v>
+        <v>62.8850600604311</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.003083333333333332</v>
       </c>
       <c r="B38">
-        <v>69.61262944401325</v>
+        <v>71.23214249301596</v>
       </c>
       <c r="C38">
-        <v>-138.1881019015864</v>
+        <v>-139.4662912373529</v>
       </c>
       <c r="D38">
-        <v>66.37028775860277</v>
+        <v>66.67468630341762</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.003166666666666665</v>
       </c>
       <c r="B39">
-        <v>66.55705297666771</v>
+        <v>67.26505249510157</v>
       </c>
       <c r="C39">
-        <v>-138.5881755457537</v>
+        <v>-140.0887409499527</v>
       </c>
       <c r="D39">
-        <v>69.76362700687022</v>
+        <v>71.10453287032665</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.003249999999999999</v>
       </c>
       <c r="B40">
-        <v>61.19234106897687</v>
+        <v>62.36871655630722</v>
       </c>
       <c r="C40">
-        <v>-134.0922679907718</v>
+        <v>-137.4004899570383</v>
       </c>
       <c r="D40">
-        <v>72.99309231125461</v>
+        <v>75.31223937953663</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.003333333333333332</v>
       </c>
       <c r="B41">
-        <v>56.74568059090002</v>
+        <v>59.68946707571671</v>
       </c>
       <c r="C41">
-        <v>-130.9862313628724</v>
+        <v>-138.003779470862</v>
       </c>
       <c r="D41">
-        <v>82.9374453650249</v>
+        <v>85.70760992225452</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.003416666666666665</v>
       </c>
       <c r="B42">
-        <v>45.11658004064212</v>
+        <v>44.62164485133924</v>
       </c>
       <c r="C42">
-        <v>-127.4431539220455</v>
+        <v>-129.4974760204041</v>
       </c>
       <c r="D42">
-        <v>99.8690301352831</v>
+        <v>100.8493359395471</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.003499999999999998</v>
       </c>
       <c r="B43">
-        <v>25.34594964271397</v>
+        <v>24.57799723382809</v>
       </c>
       <c r="C43">
-        <v>-131.5643670572923</v>
+        <v>-134.5644162494118</v>
       </c>
       <c r="D43">
-        <v>115.2634096496568</v>
+        <v>118.5373117739033</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.003583333333333332</v>
       </c>
       <c r="B44">
-        <v>8.598674458517475</v>
+        <v>8.225240462395034</v>
       </c>
       <c r="C44">
-        <v>-136.7476040199258</v>
+        <v>-142.4887611338688</v>
       </c>
       <c r="D44">
-        <v>125.776734118377</v>
+        <v>130.4980200805431</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.003666666666666665</v>
       </c>
       <c r="B45">
-        <v>1.60545214818042</v>
+        <v>2.069576269128071</v>
       </c>
       <c r="C45">
-        <v>-138.0946793361864</v>
+        <v>-140.8581947547809</v>
       </c>
       <c r="D45">
-        <v>131.6806155154193</v>
+        <v>132.0547540311552</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003749999999999998</v>
       </c>
       <c r="B46">
-        <v>0.01940595540195211</v>
+        <v>0.1355102488417859</v>
       </c>
       <c r="C46">
-        <v>-138.1219255393284</v>
+        <v>-140.6657920667223</v>
       </c>
       <c r="D46">
-        <v>138.4974790938714</v>
+        <v>140.702881612908</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003833333333333331</v>
       </c>
       <c r="B47">
-        <v>-1.473497228742238</v>
+        <v>-2.059785473004228</v>
       </c>
       <c r="C47">
-        <v>-131.5095896648027</v>
+        <v>-133.3233522788505</v>
       </c>
       <c r="D47">
-        <v>138.5019188699695</v>
+        <v>141.8289691733944</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003916666666666665</v>
       </c>
       <c r="B48">
-        <v>-8.362345347130651</v>
+        <v>-8.400222005119085</v>
       </c>
       <c r="C48">
-        <v>-125.4864412204086</v>
+        <v>-128.8130170428105</v>
       </c>
       <c r="D48">
-        <v>136.8681817116467</v>
+        <v>141.8995546310281</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003999999999999998</v>
       </c>
       <c r="B49">
-        <v>-24.9624877412683</v>
+        <v>-24.83846996619438</v>
       </c>
       <c r="C49">
-        <v>-115.2161331675305</v>
+        <v>-120.5831085607206</v>
       </c>
       <c r="D49">
-        <v>131.2846832701118</v>
+        <v>136.118879486931</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.004083333333333332</v>
       </c>
       <c r="B50">
-        <v>-44.87816608211703</v>
+        <v>-45.23611487707441</v>
       </c>
       <c r="C50">
-        <v>-99.88237111687454</v>
+        <v>-99.17830074881618</v>
       </c>
       <c r="D50">
-        <v>126.8771540489285</v>
+        <v>128.1426689837031</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B51">
-        <v>-56.56271693512905</v>
+        <v>-59.07483089322014</v>
       </c>
       <c r="C51">
-        <v>-83.06506000116765</v>
+        <v>-84.63275328389503</v>
       </c>
       <c r="D51">
-        <v>130.4212663858656</v>
+        <v>135.5093287583121</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.004249999999999999</v>
       </c>
       <c r="B52">
-        <v>-61.19499911688531</v>
+        <v>-62.736131478211</v>
       </c>
       <c r="C52">
-        <v>-73.0125388822831</v>
+        <v>-75.63302257971361</v>
       </c>
       <c r="D52">
-        <v>133.7065829204571</v>
+        <v>138.1417568257266</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.004333333333333333</v>
       </c>
       <c r="B53">
-        <v>-66.34307818330687</v>
+        <v>-66.41429728077381</v>
       </c>
       <c r="C53">
-        <v>-69.55804409386502</v>
+        <v>-71.2305838967392</v>
       </c>
       <c r="D53">
-        <v>138.0384565847175</v>
+        <v>139.5061139856854</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.004416666666666667</v>
       </c>
       <c r="B54">
-        <v>-69.61900689283796</v>
+        <v>-70.80487149383835</v>
       </c>
       <c r="C54">
-        <v>-66.54472832260005</v>
+        <v>-67.08598500192649</v>
       </c>
       <c r="D54">
-        <v>138.5134954149362</v>
+        <v>139.7681189533791</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B55">
-        <v>-72.94935455579954</v>
+        <v>-75.34557841496232</v>
       </c>
       <c r="C55">
-        <v>-61.25994915703581</v>
+        <v>-62.22610395959533</v>
       </c>
       <c r="D55">
-        <v>134.1554355379913</v>
+        <v>137.1262441107734</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.004583333333333334</v>
       </c>
       <c r="B56">
-        <v>-82.93164355593608</v>
+        <v>-85.76647498195533</v>
       </c>
       <c r="C56">
-        <v>-56.71478492748938</v>
+        <v>-59.43184348038949</v>
       </c>
       <c r="D56">
-        <v>130.9122369221342</v>
+        <v>137.5837944306401</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.004666666666666668</v>
       </c>
       <c r="B57">
-        <v>-99.86906313552763</v>
+        <v>-100.8187537597566</v>
       </c>
       <c r="C57">
-        <v>-45.00511578096555</v>
+        <v>-44.37732929470001</v>
       </c>
       <c r="D57">
-        <v>127.2803391987628</v>
+        <v>129.6805964839109</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.004750000000000002</v>
       </c>
       <c r="B58">
-        <v>-115.0288657419294</v>
+        <v>-118.0593747442826</v>
       </c>
       <c r="C58">
-        <v>-25.23813701803246</v>
+        <v>-24.54765361434325</v>
       </c>
       <c r="D58">
-        <v>131.4490734535211</v>
+        <v>134.3070957784272</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.004833333333333335</v>
       </c>
       <c r="B59">
-        <v>-125.4380565406458</v>
+        <v>-130.2987956533175</v>
       </c>
       <c r="C59">
-        <v>-8.554202579171056</v>
+        <v>-8.435608194007905</v>
       </c>
       <c r="D59">
-        <v>136.644528491616</v>
+        <v>141.7459077405896</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.004916666666666669</v>
       </c>
       <c r="B60">
-        <v>-131.2960548178459</v>
+        <v>-132.617039915732</v>
       </c>
       <c r="C60">
-        <v>-1.596122270687172</v>
+        <v>-2.235113801571098</v>
       </c>
       <c r="D60">
-        <v>137.9492726537298</v>
+        <v>140.8012781829504</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.005000000000000003</v>
       </c>
       <c r="B61">
-        <v>-138.1271457933438</v>
+        <v>-139.883929951012</v>
       </c>
       <c r="C61">
-        <v>0.004784396653856327</v>
+        <v>-0.03742470370660111</v>
       </c>
       <c r="D61">
-        <v>137.9057131307521</v>
+        <v>140.3476072432368</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.005083333333333336</v>
       </c>
       <c r="B62">
-        <v>-138.1568582759826</v>
+        <v>-141.0680251914537</v>
       </c>
       <c r="C62">
-        <v>1.492681255528039</v>
+        <v>1.974080149062529</v>
       </c>
       <c r="D62">
-        <v>131.5701803494553</v>
+        <v>133.3476555607401</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.00516666666666667</v>
       </c>
       <c r="B63">
-        <v>-136.5566622275232</v>
+        <v>-142.1170098640746</v>
       </c>
       <c r="C63">
-        <v>8.268367298584156</v>
+        <v>8.188564421448831</v>
       </c>
       <c r="D63">
-        <v>125.4655604872321</v>
+        <v>129.1111964606705</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.005250000000000004</v>
       </c>
       <c r="B64">
-        <v>-131.6325983083707</v>
+        <v>-136.8958703003281</v>
       </c>
       <c r="C64">
-        <v>24.85270592660405</v>
+        <v>24.70993417205192</v>
       </c>
       <c r="D64">
-        <v>115.4290838827974</v>
+        <v>120.5277186173945</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.005333333333333337</v>
       </c>
       <c r="B65">
-        <v>-127.3425899290733</v>
+        <v>-129.1579459470323</v>
       </c>
       <c r="C65">
-        <v>44.90197980258526</v>
+        <v>44.79122515652246</v>
       </c>
       <c r="D65">
-        <v>99.95637760431647</v>
+        <v>99.30071657982376</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.005416666666666671</v>
       </c>
       <c r="B66">
-        <v>-130.7790208965659</v>
+        <v>-136.3061114567565</v>
       </c>
       <c r="C66">
-        <v>56.65712464714468</v>
+        <v>58.9747704402896</v>
       </c>
       <c r="D66">
-        <v>83.07383657785705</v>
+        <v>85.02309893693521</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.005500000000000005</v>
       </c>
       <c r="B67">
-        <v>-133.9706803047439</v>
+        <v>-138.0836372516687</v>
       </c>
       <c r="C67">
-        <v>61.18145770838146</v>
+        <v>62.82275814373683</v>
       </c>
       <c r="D67">
-        <v>73.13768501620955</v>
+        <v>75.9732162763105</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.005583333333333339</v>
       </c>
       <c r="B68">
-        <v>-138.0943789861778</v>
+        <v>-139.5100312845983</v>
       </c>
       <c r="C68">
-        <v>66.3388257531995</v>
+        <v>66.80945210611829</v>
       </c>
       <c r="D68">
-        <v>69.65109581642126</v>
+        <v>71.19571546581687</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.005666666666666672</v>
       </c>
       <c r="B69">
-        <v>-138.3642766182724</v>
+        <v>-140.3587056087866</v>
       </c>
       <c r="C69">
-        <v>69.63239705861946</v>
+        <v>71.20392743362736</v>
       </c>
       <c r="D69">
-        <v>66.50149698923025</v>
+        <v>66.94547940639285</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.005750000000000006</v>
       </c>
       <c r="B70">
-        <v>-134.3289425515796</v>
+        <v>-137.6357968867493</v>
       </c>
       <c r="C70">
-        <v>73.05270802234398</v>
+        <v>75.33633698807995</v>
       </c>
       <c r="D70">
-        <v>61.1984687286149</v>
+        <v>62.27020055867839</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00583333333333334</v>
       </c>
       <c r="B71">
-        <v>-131.2635933920834</v>
+        <v>-137.4401275119557</v>
       </c>
       <c r="C71">
-        <v>83.01027792313742</v>
+        <v>85.33346981767832</v>
       </c>
       <c r="D71">
-        <v>56.74788145624166</v>
+        <v>59.62246760465195</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.005916666666666673</v>
       </c>
       <c r="B72">
-        <v>-127.7434160796406</v>
+        <v>-129.0313958768565</v>
       </c>
       <c r="C72">
-        <v>99.90847612891075</v>
+        <v>100.4925124341186</v>
       </c>
       <c r="D72">
-        <v>45.06180791153325</v>
+        <v>44.94144451150789</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B73">
-        <v>-132.0680945529531</v>
+        <v>-134.3752639976558</v>
       </c>
       <c r="C73">
-        <v>115.2758193204629</v>
+        <v>118.3814669126879</v>
       </c>
       <c r="D73">
-        <v>25.1995803157099</v>
+        <v>24.70569960625197</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.006083333333333341</v>
       </c>
       <c r="B74">
-        <v>-136.9181302894308</v>
+        <v>-142.5518870981608</v>
       </c>
       <c r="C74">
-        <v>125.6427035930479</v>
+        <v>130.5918613014712</v>
       </c>
       <c r="D74">
-        <v>8.462003951872244</v>
+        <v>8.229519224541848</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.006166666666666674</v>
       </c>
       <c r="B75">
-        <v>-137.8788242112012</v>
+        <v>-141.5521781703809</v>
       </c>
       <c r="C75">
-        <v>131.3677690332125</v>
+        <v>132.8032853933704</v>
       </c>
       <c r="D75">
-        <v>1.511369348215719</v>
+        <v>2.035633185419883</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.006250000000000008</v>
       </c>
       <c r="B76">
-        <v>-137.7815477525976</v>
+        <v>-139.8854447852224</v>
       </c>
       <c r="C76">
-        <v>138.0340457317981</v>
+        <v>139.7566749318456</v>
       </c>
       <c r="D76">
-        <v>-0.05024993077673567</v>
+        <v>-0.0422428749416448</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.006333333333333342</v>
       </c>
       <c r="B77">
-        <v>-131.3757870648233</v>
+        <v>-131.9433160146023</v>
       </c>
       <c r="C77">
-        <v>138.1435162078181</v>
+        <v>140.7710193637689</v>
       </c>
       <c r="D77">
-        <v>-1.508942847677552</v>
+        <v>-1.876871345535269</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.006416666666666676</v>
       </c>
       <c r="B78">
-        <v>-125.2571059422913</v>
+        <v>-128.4677653491023</v>
       </c>
       <c r="C78">
-        <v>136.6188607957536</v>
+        <v>141.9909457620895</v>
       </c>
       <c r="D78">
-        <v>-8.286500672930242</v>
+        <v>-8.029859813487862</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.006500000000000009</v>
       </c>
       <c r="B79">
-        <v>-115.2532884435887</v>
+        <v>-120.9563531364297</v>
       </c>
       <c r="C79">
-        <v>131.6041863545583</v>
+        <v>136.6728514824559</v>
       </c>
       <c r="D79">
-        <v>-24.80263897185897</v>
+        <v>-24.69758319426557</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.006583333333333343</v>
       </c>
       <c r="B80">
-        <v>-99.91203289838452</v>
+        <v>-99.47175411201771</v>
       </c>
       <c r="C80">
-        <v>127.2414388823197</v>
+        <v>128.46317008576</v>
       </c>
       <c r="D80">
-        <v>-44.8400628362019</v>
+        <v>-44.85131932322556</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.006666666666666677</v>
       </c>
       <c r="B81">
-        <v>-83.12837757356284</v>
+        <v>-84.55781118542005</v>
       </c>
       <c r="C81">
-        <v>130.6690362456909</v>
+        <v>135.7665485998365</v>
       </c>
       <c r="D81">
-        <v>-56.601122198787</v>
+        <v>-58.90737670764396</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.00675000000000001</v>
       </c>
       <c r="B82">
-        <v>-73.13140474813396</v>
+        <v>-75.5784764632167</v>
       </c>
       <c r="C82">
-        <v>134.0575888856708</v>
+        <v>138.2027529721427</v>
       </c>
       <c r="D82">
-        <v>-61.22276493325241</v>
+        <v>-62.88615498439704</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.006833333333333344</v>
       </c>
       <c r="B83">
-        <v>-69.60969326939748</v>
+        <v>-71.22945948862231</v>
       </c>
       <c r="C83">
-        <v>138.1931801453548</v>
+        <v>139.4723394376303</v>
       </c>
       <c r="D83">
-        <v>-66.37753256583589</v>
+        <v>-66.68289612901418</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.006916666666666678</v>
       </c>
       <c r="B84">
-        <v>-66.5499032075203</v>
+        <v>-67.25632218209211</v>
       </c>
       <c r="C84">
-        <v>138.5833427641182</v>
+        <v>140.0839718824627</v>
       </c>
       <c r="D84">
-        <v>-69.76641826831087</v>
+        <v>-71.10851246376727</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.007000000000000011</v>
       </c>
       <c r="B85">
-        <v>-61.18692236965662</v>
+        <v>-62.36277797647766</v>
       </c>
       <c r="C85">
-        <v>134.0882340343205</v>
+        <v>137.3984645195634</v>
       </c>
       <c r="D85">
-        <v>-73.00241001710583</v>
+        <v>-75.32209274176415</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.007083333333333345</v>
       </c>
       <c r="B86">
-        <v>-56.73480971838119</v>
+        <v>-59.68053239401028</v>
       </c>
       <c r="C86">
-        <v>130.9797368032976</v>
+        <v>137.9997254118659</v>
       </c>
       <c r="D86">
-        <v>-82.95770507346012</v>
+        <v>-85.72710121574956</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.007166666666666679</v>
       </c>
       <c r="B87">
-        <v>-45.09402555174557</v>
+        <v>-44.59438413822098</v>
       </c>
       <c r="C87">
-        <v>127.4426533563267</v>
+        <v>129.4894855969351</v>
       </c>
       <c r="D87">
-        <v>-99.89389054082943</v>
+        <v>-100.8719882445888</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.007250000000000013</v>
       </c>
       <c r="B88">
-        <v>-25.31513324796531</v>
+        <v>-24.54789289991266</v>
       </c>
       <c r="C88">
-        <v>131.5747140306237</v>
+        <v>134.580781903446</v>
       </c>
       <c r="D88">
-        <v>-115.2841457283473</v>
+        <v>-118.5629365846216</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.007333333333333346</v>
       </c>
       <c r="B89">
-        <v>-8.582484942614599</v>
+        <v>-8.209944314123975</v>
       </c>
       <c r="C89">
-        <v>136.7505332363394</v>
+        <v>142.4913436415968</v>
       </c>
       <c r="D89">
-        <v>-125.7845689746583</v>
+        <v>-130.5027460001152</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00741666666666668</v>
       </c>
       <c r="B90">
-        <v>-1.600276463340378</v>
+        <v>-2.064869097552213</v>
       </c>
       <c r="C90">
-        <v>138.0964690223017</v>
+        <v>140.8567308764495</v>
       </c>
       <c r="D90">
-        <v>-131.6919644851703</v>
+        <v>-132.0639802580911</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage2000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage2000.xlsx
@@ -408,13 +408,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>2.054230710822336</v>
+        <v>1.548314990331978</v>
       </c>
       <c r="C2">
-        <v>133.332196031372</v>
+        <v>134.7364614685409</v>
       </c>
       <c r="D2">
-        <v>-141.8289007643024</v>
+        <v>-141.9554401863615</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B3">
-        <v>8.384809851542386</v>
+        <v>8.596174548120562</v>
       </c>
       <c r="C3">
-        <v>128.8135336615881</v>
+        <v>128.7609290879913</v>
       </c>
       <c r="D3">
-        <v>-141.8992563128821</v>
+        <v>-140.4636580570505</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.00025</v>
       </c>
       <c r="B4">
-        <v>24.80760530814641</v>
+        <v>25.57940483790405</v>
       </c>
       <c r="C4">
-        <v>120.6143640290422</v>
+        <v>118.2663067488016</v>
       </c>
       <c r="D4">
-        <v>-136.1366845679154</v>
+        <v>-134.8514269463705</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B5">
-        <v>45.21082928275605</v>
+        <v>45.94713372284176</v>
       </c>
       <c r="C5">
-        <v>99.20262420184568</v>
+        <v>102.3059547932359</v>
       </c>
       <c r="D5">
-        <v>-128.1403542512217</v>
+        <v>-130.0062987801168</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B6">
-        <v>59.06166282145215</v>
+        <v>58.02027598427517</v>
       </c>
       <c r="C6">
-        <v>84.65021834881848</v>
+        <v>85.19520979190565</v>
       </c>
       <c r="D6">
-        <v>-135.497963570002</v>
+        <v>-133.7849187865094</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0005</v>
       </c>
       <c r="B7">
-        <v>62.73529539101347</v>
+        <v>62.63928019639348</v>
       </c>
       <c r="C7">
-        <v>75.6425784210743</v>
+        <v>74.79058967435837</v>
       </c>
       <c r="D7">
-        <v>-138.1439569967239</v>
+        <v>-136.8778992563135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B8">
-        <v>66.4057283975289</v>
+        <v>68.16156107651211</v>
       </c>
       <c r="C8">
-        <v>71.23339320644794</v>
+        <v>71.52671401989193</v>
       </c>
       <c r="D8">
-        <v>-139.5001217114434</v>
+        <v>-141.9475936878395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B9">
-        <v>70.80057061640721</v>
+        <v>71.40807954722551</v>
       </c>
       <c r="C9">
-        <v>67.09470352433439</v>
+        <v>68.23238274850985</v>
       </c>
       <c r="D9">
-        <v>-139.7726406407269</v>
+        <v>-142.1178965563055</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0007500000000000001</v>
       </c>
       <c r="B10">
-        <v>75.33541879347128</v>
+        <v>74.85252930197694</v>
       </c>
       <c r="C10">
-        <v>62.23214895473701</v>
+        <v>62.75400586770147</v>
       </c>
       <c r="D10">
-        <v>-137.1288711223935</v>
+        <v>-137.5294115488038</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0008333333333333335</v>
       </c>
       <c r="B11">
-        <v>85.7471446313174</v>
+        <v>85.14106017655676</v>
       </c>
       <c r="C11">
-        <v>59.44118528182718</v>
+        <v>58.23628885917115</v>
       </c>
       <c r="D11">
-        <v>-137.5875938324915</v>
+        <v>-134.4257900190707</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0009166666666666669</v>
       </c>
       <c r="B12">
-        <v>100.7969415599594</v>
+        <v>102.3755790472528</v>
       </c>
       <c r="C12">
-        <v>44.40425912650065</v>
+        <v>46.0703363742418</v>
       </c>
       <c r="D12">
-        <v>-129.6883957124779</v>
+        <v>-130.4769731910716</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001</v>
       </c>
       <c r="B13">
-        <v>118.0336651491495</v>
+        <v>117.8457977495503</v>
       </c>
       <c r="C13">
-        <v>24.57706711381541</v>
+        <v>25.86535387105654</v>
       </c>
       <c r="D13">
-        <v>-134.2917968474722</v>
+        <v>-134.816895355416</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B14">
-        <v>130.29252433352</v>
+        <v>128.613327414092</v>
       </c>
       <c r="C14">
-        <v>8.450783344797486</v>
+        <v>8.781846823880946</v>
       </c>
       <c r="D14">
-        <v>-141.7426004319257</v>
+        <v>-140.097418460151</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B15">
-        <v>132.6089138452992</v>
+        <v>134.5806963469728</v>
       </c>
       <c r="C15">
-        <v>2.240452683053562</v>
+        <v>1.627371142245704</v>
       </c>
       <c r="D15">
-        <v>-140.8024629394361</v>
+        <v>-141.3761764172672</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.00125</v>
       </c>
       <c r="B16">
-        <v>139.8765656698312</v>
+        <v>141.8681338886968</v>
       </c>
       <c r="C16">
-        <v>0.03880981058718147</v>
+        <v>-0.02542450138504071</v>
       </c>
       <c r="D16">
-        <v>-140.3537979316616</v>
+        <v>-141.7564267048896</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B17">
-        <v>141.0679641536304</v>
+        <v>141.5363042412504</v>
       </c>
       <c r="C17">
-        <v>-1.969142217611852</v>
+        <v>-1.536658152515025</v>
       </c>
       <c r="D17">
-        <v>-133.3570379872567</v>
+        <v>-134.67077889874</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001416666666666667</v>
       </c>
       <c r="B18">
-        <v>142.1145966937233</v>
+        <v>140.1466583183725</v>
       </c>
       <c r="C18">
-        <v>-8.173018095004871</v>
+        <v>-8.498383391819242</v>
       </c>
       <c r="D18">
-        <v>-129.11088393458</v>
+        <v>-128.7458791924673</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0015</v>
       </c>
       <c r="B19">
-        <v>136.9134168663224</v>
+        <v>135.2227208040682</v>
       </c>
       <c r="C19">
-        <v>-24.67919790253598</v>
+        <v>-25.46185470594015</v>
       </c>
       <c r="D19">
-        <v>-120.5596824669591</v>
+        <v>-118.5149732709912</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B20">
-        <v>129.1557843792575</v>
+        <v>130.5405067879411</v>
       </c>
       <c r="C20">
-        <v>-44.76591124863761</v>
+        <v>-45.98943106128628</v>
       </c>
       <c r="D20">
-        <v>-99.32487938348473</v>
+        <v>-102.3984687935681</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B21">
-        <v>136.294797060893</v>
+        <v>134.1354303626772</v>
       </c>
       <c r="C21">
-        <v>-58.96091163513279</v>
+        <v>-58.09423973242161</v>
       </c>
       <c r="D21">
-        <v>-85.03935545448427</v>
+        <v>-85.20229356885818</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.00175</v>
       </c>
       <c r="B22">
-        <v>138.0863254083563</v>
+        <v>137.1519783441406</v>
       </c>
       <c r="C22">
-        <v>-62.82104473093687</v>
+        <v>-62.59968973023667</v>
       </c>
       <c r="D22">
-        <v>-75.9830889439192</v>
+        <v>-74.88675974883618</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001833333333333333</v>
       </c>
       <c r="B23">
-        <v>139.5041844633403</v>
+        <v>141.9834010134755</v>
       </c>
       <c r="C23">
-        <v>-66.80150821226555</v>
+        <v>-68.18816399051049</v>
       </c>
       <c r="D23">
-        <v>-71.1995522922726</v>
+        <v>-71.58748457492482</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B24">
-        <v>140.3630070304934</v>
+        <v>141.9437219771889</v>
       </c>
       <c r="C24">
-        <v>-71.19983286718008</v>
+        <v>-71.44245391941695</v>
       </c>
       <c r="D24">
-        <v>-66.95419009190796</v>
+        <v>-68.14844360234801</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002</v>
       </c>
       <c r="B25">
-        <v>137.6386904472106</v>
+        <v>137.689486770616</v>
       </c>
       <c r="C25">
-        <v>-75.32697768066227</v>
+        <v>-74.95659345852141</v>
       </c>
       <c r="D25">
-        <v>-62.27587830026083</v>
+        <v>-62.67092972972538</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B26">
-        <v>137.4443546782414</v>
+        <v>134.7601055936563</v>
       </c>
       <c r="C26">
-        <v>-85.31390849921218</v>
+        <v>-85.19637537948822</v>
       </c>
       <c r="D26">
-        <v>-59.63094363704264</v>
+        <v>-58.2585984110176</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B27">
-        <v>129.0404395234889</v>
+        <v>130.974154363511</v>
       </c>
       <c r="C27">
-        <v>-100.47073533966</v>
+        <v>-102.4081416646502</v>
       </c>
       <c r="D27">
-        <v>-44.96866538161671</v>
+        <v>-46.13526385454564</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.002249999999999999</v>
       </c>
       <c r="B28">
-        <v>134.357928735394</v>
+        <v>135.4160829893058</v>
       </c>
       <c r="C28">
-        <v>-118.3551438767089</v>
+        <v>-118.0998040388137</v>
       </c>
       <c r="D28">
-        <v>-24.736066284404</v>
+        <v>-25.81793061838422</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.002333333333333333</v>
       </c>
       <c r="B29">
-        <v>142.54838684293</v>
+        <v>140.3407679611447</v>
       </c>
       <c r="C29">
-        <v>-130.5856690169127</v>
+        <v>-128.816550755848</v>
       </c>
       <c r="D29">
-        <v>-8.244703013975952</v>
+        <v>-8.67622083861902</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B30">
-        <v>141.5545702806601</v>
+        <v>141.3908258239904</v>
       </c>
       <c r="C30">
-        <v>-132.795800282996</v>
+        <v>-134.7076143082424</v>
       </c>
       <c r="D30">
-        <v>-2.040854124120695</v>
+        <v>-1.564431989614368</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002499999999999999</v>
       </c>
       <c r="B31">
-        <v>139.89247954832</v>
+        <v>141.6444336469952</v>
       </c>
       <c r="C31">
-        <v>-139.7491292324048</v>
+        <v>-141.7851570095913</v>
       </c>
       <c r="D31">
-        <v>0.04095744028237425</v>
+        <v>0.05344496830150813</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002583333333333332</v>
       </c>
       <c r="B32">
-        <v>131.9534973313008</v>
+        <v>134.456161231288</v>
       </c>
       <c r="C32">
-        <v>-140.770923765056</v>
+        <v>-141.4873383721792</v>
       </c>
       <c r="D32">
-        <v>1.872150879818346</v>
+        <v>1.565559763829494</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002666666666666666</v>
       </c>
       <c r="B33">
-        <v>128.4667422622711</v>
+        <v>128.4658181599058</v>
       </c>
       <c r="C33">
-        <v>-141.9895507691618</v>
+        <v>-140.1606140144761</v>
       </c>
       <c r="D33">
-        <v>8.014863394259221</v>
+        <v>8.539872409474571</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002749999999999999</v>
       </c>
       <c r="B34">
-        <v>120.9861546326682</v>
+        <v>118.3032909048862</v>
       </c>
       <c r="C34">
-        <v>-136.6895662488939</v>
+        <v>-135.1573805829673</v>
       </c>
       <c r="D34">
-        <v>24.66635510593923</v>
+        <v>25.41672915769677</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002833333333333332</v>
       </c>
       <c r="B35">
-        <v>99.49725674379741</v>
+        <v>102.3791042448546</v>
       </c>
       <c r="C35">
-        <v>-128.4617990015044</v>
+        <v>-130.4205575729489</v>
       </c>
       <c r="D35">
-        <v>44.82578224995759</v>
+        <v>45.89951216852323</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002916666666666665</v>
       </c>
       <c r="B36">
-        <v>84.57436066078877</v>
+        <v>85.24784059231183</v>
       </c>
       <c r="C36">
-        <v>-135.7539456194396</v>
+        <v>-133.9771252616539</v>
       </c>
       <c r="D36">
-        <v>58.89325583191191</v>
+        <v>58.0379545098167</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002999999999999999</v>
       </c>
       <c r="B37">
-        <v>75.58855373741542</v>
+        <v>74.86279395579832</v>
       </c>
       <c r="C37">
-        <v>-138.206050204657</v>
+        <v>-137.2093430777794</v>
       </c>
       <c r="D37">
-        <v>62.8850600604311</v>
+        <v>62.64956610835038</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.003083333333333332</v>
       </c>
       <c r="B38">
-        <v>71.23214249301596</v>
+        <v>71.52628482392177</v>
       </c>
       <c r="C38">
-        <v>-139.4662912373529</v>
+        <v>-142.0396180940398</v>
       </c>
       <c r="D38">
-        <v>66.67468630341762</v>
+        <v>68.21070542764014</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.003166666666666665</v>
       </c>
       <c r="B39">
-        <v>67.26505249510157</v>
+        <v>68.24874204920783</v>
       </c>
       <c r="C39">
-        <v>-140.0887409499527</v>
+        <v>-142.1473720936799</v>
       </c>
       <c r="D39">
-        <v>71.10453287032665</v>
+        <v>71.53077632346157</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.003249999999999999</v>
       </c>
       <c r="B40">
-        <v>62.36871655630722</v>
+        <v>62.6798911489826</v>
       </c>
       <c r="C40">
-        <v>-137.4004899570383</v>
+        <v>-137.3698530950072</v>
       </c>
       <c r="D40">
-        <v>75.31223937953663</v>
+        <v>74.85634646580725</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.003333333333333332</v>
       </c>
       <c r="B41">
-        <v>59.68946707571671</v>
+        <v>58.23776205549663</v>
       </c>
       <c r="C41">
-        <v>-138.003779470862</v>
+        <v>-134.462717777922</v>
       </c>
       <c r="D41">
-        <v>85.70760992225452</v>
+        <v>85.14295140316236</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.003416666666666665</v>
       </c>
       <c r="B42">
-        <v>44.62164485133924</v>
+        <v>46.13241185870005</v>
       </c>
       <c r="C42">
-        <v>-129.4974760204041</v>
+        <v>-130.682467779801</v>
       </c>
       <c r="D42">
-        <v>100.8493359395471</v>
+        <v>102.4438399630648</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.003499999999999998</v>
       </c>
       <c r="B43">
-        <v>24.57799723382809</v>
+        <v>25.94385918636172</v>
       </c>
       <c r="C43">
-        <v>-134.5644162494118</v>
+        <v>-134.9352202988417</v>
       </c>
       <c r="D43">
-        <v>118.5373117739033</v>
+        <v>118.1182637922992</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.003583333333333332</v>
       </c>
       <c r="B44">
-        <v>8.225240462395034</v>
+        <v>8.814691105834273</v>
       </c>
       <c r="C44">
-        <v>-142.4887611338688</v>
+        <v>-140.1238204406582</v>
       </c>
       <c r="D44">
-        <v>130.4980200805431</v>
+        <v>128.9112935548288</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.003666666666666665</v>
       </c>
       <c r="B45">
-        <v>2.069576269128071</v>
+        <v>1.637833657713583</v>
       </c>
       <c r="C45">
-        <v>-140.8581947547809</v>
+        <v>-141.5238286014536</v>
       </c>
       <c r="D45">
-        <v>132.0547540311552</v>
+        <v>134.9879027660648</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003749999999999998</v>
       </c>
       <c r="B46">
-        <v>0.1355102488417859</v>
+        <v>-0.00746193740630563</v>
       </c>
       <c r="C46">
-        <v>-140.6657920667223</v>
+        <v>-142.0123075822304</v>
       </c>
       <c r="D46">
-        <v>140.702881612908</v>
+        <v>142.2876753424175</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003833333333333331</v>
       </c>
       <c r="B47">
-        <v>-2.059785473004228</v>
+        <v>-1.553529252163177</v>
       </c>
       <c r="C47">
-        <v>-133.3233522788505</v>
+        <v>-134.724481928468</v>
       </c>
       <c r="D47">
-        <v>141.8289691733944</v>
+        <v>141.9531513264072</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003916666666666665</v>
       </c>
       <c r="B48">
-        <v>-8.400222005119085</v>
+        <v>-8.612197797176758</v>
       </c>
       <c r="C48">
-        <v>-128.8130170428105</v>
+        <v>-128.7532296804106</v>
       </c>
       <c r="D48">
-        <v>141.8995546310281</v>
+        <v>140.4601228404712</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003999999999999998</v>
       </c>
       <c r="B49">
-        <v>-24.83846996619438</v>
+        <v>-25.61127740358577</v>
       </c>
       <c r="C49">
-        <v>-120.5831085607206</v>
+        <v>-118.2447043518334</v>
       </c>
       <c r="D49">
-        <v>136.118879486931</v>
+        <v>134.8404450836931</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.004083333333333332</v>
       </c>
       <c r="B50">
-        <v>-45.23611487707441</v>
+        <v>-45.97044786977284</v>
       </c>
       <c r="C50">
-        <v>-99.17830074881618</v>
+        <v>-102.2812302806264</v>
       </c>
       <c r="D50">
-        <v>128.1426689837031</v>
+        <v>130.0063480598657</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B51">
-        <v>-59.07483089322014</v>
+        <v>-58.03132985959914</v>
       </c>
       <c r="C51">
-        <v>-84.63275328389503</v>
+        <v>-85.17368254846338</v>
       </c>
       <c r="D51">
-        <v>135.5093287583121</v>
+        <v>133.7913846282532</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.004249999999999999</v>
       </c>
       <c r="B52">
-        <v>-62.736131478211</v>
+        <v>-62.64565372172154</v>
       </c>
       <c r="C52">
-        <v>-75.63302257971361</v>
+        <v>-74.78230456038709</v>
       </c>
       <c r="D52">
-        <v>138.1417568257266</v>
+        <v>136.8833046522626</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.004333333333333333</v>
       </c>
       <c r="B53">
-        <v>-66.41429728077381</v>
+        <v>-68.1691228237169</v>
       </c>
       <c r="C53">
-        <v>-71.2305838967392</v>
+        <v>-71.52418443629294</v>
       </c>
       <c r="D53">
-        <v>139.5061139856854</v>
+        <v>141.9544023749377</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.004416666666666667</v>
       </c>
       <c r="B54">
-        <v>-70.80487149383835</v>
+        <v>-71.41050764732398</v>
       </c>
       <c r="C54">
-        <v>-67.08598500192649</v>
+        <v>-68.22429901734955</v>
       </c>
       <c r="D54">
-        <v>139.7681189533791</v>
+        <v>142.1114602696777</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B55">
-        <v>-75.34557841496232</v>
+        <v>-74.86194321456142</v>
       </c>
       <c r="C55">
-        <v>-62.22610395959533</v>
+        <v>-62.74833393459662</v>
       </c>
       <c r="D55">
-        <v>137.1262441107734</v>
+        <v>137.525006234379</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.004583333333333334</v>
       </c>
       <c r="B56">
-        <v>-85.76647498195533</v>
+        <v>-85.16123095210799</v>
       </c>
       <c r="C56">
-        <v>-59.43184348038949</v>
+        <v>-58.22464804308092</v>
       </c>
       <c r="D56">
-        <v>137.5837944306401</v>
+        <v>134.4184299976928</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.004666666666666668</v>
       </c>
       <c r="B57">
-        <v>-100.8187537597566</v>
+        <v>-102.4011203152259</v>
       </c>
       <c r="C57">
-        <v>-44.37732929470001</v>
+        <v>-46.04733444273035</v>
       </c>
       <c r="D57">
-        <v>129.6805964839109</v>
+        <v>130.4768203588632</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.004750000000000002</v>
       </c>
       <c r="B58">
-        <v>-118.0593747442826</v>
+        <v>-117.8665363759551</v>
       </c>
       <c r="C58">
-        <v>-24.54765361434325</v>
+        <v>-25.83369395809054</v>
       </c>
       <c r="D58">
-        <v>134.3070957784272</v>
+        <v>134.8273337912025</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.004833333333333335</v>
       </c>
       <c r="B59">
-        <v>-130.2987956533175</v>
+        <v>-128.6216614291</v>
       </c>
       <c r="C59">
-        <v>-8.435608194007905</v>
+        <v>-8.765474373966242</v>
       </c>
       <c r="D59">
-        <v>141.7459077405896</v>
+        <v>140.1006771423631</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.004916666666666669</v>
       </c>
       <c r="B60">
-        <v>-132.617039915732</v>
+        <v>-134.5931921533776</v>
       </c>
       <c r="C60">
-        <v>-2.235113801571098</v>
+        <v>-1.621930833216045</v>
       </c>
       <c r="D60">
-        <v>140.8012781829504</v>
+        <v>141.3787253260759</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.005000000000000003</v>
       </c>
       <c r="B61">
-        <v>-139.883929951012</v>
+        <v>-141.8729800829592</v>
       </c>
       <c r="C61">
-        <v>-0.03742470370660111</v>
+        <v>0.02591348089525658</v>
       </c>
       <c r="D61">
-        <v>140.3476072432368</v>
+        <v>141.751827533068</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.005083333333333336</v>
       </c>
       <c r="B62">
-        <v>-141.0680251914537</v>
+        <v>-141.5329431943944</v>
       </c>
       <c r="C62">
-        <v>1.974080149062529</v>
+        <v>1.541613643004647</v>
       </c>
       <c r="D62">
-        <v>133.3476555607401</v>
+        <v>134.6580921964977</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.00516666666666667</v>
       </c>
       <c r="B63">
-        <v>-142.1170098640746</v>
+        <v>-140.1441775703057</v>
       </c>
       <c r="C63">
-        <v>8.188564421448831</v>
+        <v>8.51458205808564</v>
       </c>
       <c r="D63">
-        <v>129.1111964606705</v>
+        <v>128.7387026171959</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.005250000000000004</v>
       </c>
       <c r="B64">
-        <v>-136.8958703003281</v>
+        <v>-135.2125381797784</v>
       </c>
       <c r="C64">
-        <v>24.70993417205192</v>
+        <v>25.49385057824955</v>
       </c>
       <c r="D64">
-        <v>120.5277186173945</v>
+        <v>118.4934734265833</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.005333333333333337</v>
       </c>
       <c r="B65">
-        <v>-129.1579459470323</v>
+        <v>-130.5400629370043</v>
       </c>
       <c r="C65">
-        <v>44.79122515652246</v>
+        <v>46.01283711858972</v>
       </c>
       <c r="D65">
-        <v>99.30071657982376</v>
+        <v>102.3731358284624</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.005416666666666671</v>
       </c>
       <c r="B66">
-        <v>-136.3061114567565</v>
+        <v>-134.1432192021112</v>
       </c>
       <c r="C66">
-        <v>58.9747704402896</v>
+        <v>58.10593802471343</v>
       </c>
       <c r="D66">
-        <v>85.02309893693521</v>
+        <v>85.18209545097911</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.005500000000000005</v>
       </c>
       <c r="B67">
-        <v>-138.0836372516687</v>
+        <v>-137.1552618213566</v>
       </c>
       <c r="C67">
-        <v>62.82275814373683</v>
+        <v>62.60477007537458</v>
       </c>
       <c r="D67">
-        <v>75.9732162763105</v>
+        <v>74.87684763988729</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.005583333333333339</v>
       </c>
       <c r="B68">
-        <v>-139.5100312845983</v>
+        <v>-141.9900849496815</v>
       </c>
       <c r="C68">
-        <v>66.80945210611829</v>
+        <v>68.19615622959769</v>
       </c>
       <c r="D68">
-        <v>71.19571546581687</v>
+        <v>71.58532026609433</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.005666666666666672</v>
       </c>
       <c r="B69">
-        <v>-140.3587056087866</v>
+        <v>-141.9374464111349</v>
       </c>
       <c r="C69">
-        <v>71.20392743362736</v>
+        <v>71.4449781303056</v>
       </c>
       <c r="D69">
-        <v>66.94547940639285</v>
+        <v>68.1401287627384</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.005750000000000006</v>
       </c>
       <c r="B70">
-        <v>-137.6357968867493</v>
+        <v>-137.6859279823475</v>
       </c>
       <c r="C70">
-        <v>75.33633698807995</v>
+        <v>74.96629636661257</v>
       </c>
       <c r="D70">
-        <v>62.27020055867839</v>
+        <v>62.66566500551768</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00583333333333334</v>
       </c>
       <c r="B71">
-        <v>-137.4401275119557</v>
+        <v>-134.753406681789</v>
       </c>
       <c r="C71">
-        <v>85.33346981767832</v>
+        <v>85.21693157479527</v>
       </c>
       <c r="D71">
-        <v>59.62246760465195</v>
+        <v>58.24746319391117</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.005916666666666673</v>
       </c>
       <c r="B72">
-        <v>-129.0313958768565</v>
+        <v>-130.9738400108291</v>
       </c>
       <c r="C72">
-        <v>100.4925124341186</v>
+        <v>102.4333886594289</v>
       </c>
       <c r="D72">
-        <v>44.94144451150789</v>
+        <v>46.11194989336099</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B73">
-        <v>-134.3752639976558</v>
+        <v>-135.4264858575472</v>
       </c>
       <c r="C73">
-        <v>118.3814669126879</v>
+        <v>118.1208859993632</v>
       </c>
       <c r="D73">
-        <v>24.70569960625197</v>
+        <v>25.78595012137974</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.006083333333333341</v>
       </c>
       <c r="B74">
-        <v>-142.5518870981608</v>
+        <v>-140.3435268949019</v>
       </c>
       <c r="C74">
-        <v>130.5918613014712</v>
+        <v>128.824846320888</v>
       </c>
       <c r="D74">
-        <v>8.229519224541848</v>
+        <v>8.660037256125742</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.006166666666666674</v>
       </c>
       <c r="B75">
-        <v>-141.5521781703809</v>
+        <v>-141.3925527908992</v>
       </c>
       <c r="C75">
-        <v>132.8032853933704</v>
+        <v>134.7190922277855</v>
       </c>
       <c r="D75">
-        <v>2.035633185419883</v>
+        <v>1.558962982615153</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.006250000000000008</v>
       </c>
       <c r="B76">
-        <v>-139.8854447852224</v>
+        <v>-141.6401264100985</v>
       </c>
       <c r="C76">
-        <v>139.7566749318456</v>
+        <v>141.7904274494705</v>
       </c>
       <c r="D76">
-        <v>-0.0422428749416448</v>
+        <v>-0.05403478411436513</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.006333333333333342</v>
       </c>
       <c r="B77">
-        <v>-131.9433160146023</v>
+        <v>-134.4441378789303</v>
       </c>
       <c r="C77">
-        <v>140.7710193637689</v>
+        <v>141.4849727095495</v>
       </c>
       <c r="D77">
-        <v>-1.876871345535269</v>
+        <v>-1.570846418752769</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.006416666666666676</v>
       </c>
       <c r="B78">
-        <v>-128.4677653491023</v>
+        <v>-128.4582996173368</v>
       </c>
       <c r="C78">
-        <v>141.9909457620895</v>
+        <v>140.1577593051835</v>
       </c>
       <c r="D78">
-        <v>-8.029859813487862</v>
+        <v>-8.555799901236728</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.006500000000000009</v>
       </c>
       <c r="B79">
-        <v>-120.9563531364297</v>
+        <v>-118.2815800805817</v>
       </c>
       <c r="C79">
-        <v>136.6728514824559</v>
+        <v>135.1466381035889</v>
       </c>
       <c r="D79">
-        <v>-24.69758319426557</v>
+        <v>-25.44840028477768</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.006583333333333343</v>
       </c>
       <c r="B80">
-        <v>-99.47175411201771</v>
+        <v>-102.3535703633416</v>
       </c>
       <c r="C80">
-        <v>128.46317008576</v>
+        <v>130.4193217000072</v>
       </c>
       <c r="D80">
-        <v>-44.85131932322556</v>
+        <v>-45.92257605834816</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.006666666666666677</v>
       </c>
       <c r="B81">
-        <v>-84.55781118542005</v>
+        <v>-85.22735983650388</v>
       </c>
       <c r="C81">
-        <v>135.7665485998365</v>
+        <v>133.984826136763</v>
       </c>
       <c r="D81">
-        <v>-58.90737670764396</v>
+        <v>-58.04981094479744</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.00675000000000001</v>
       </c>
       <c r="B82">
-        <v>-75.5784764632167</v>
+        <v>-74.85348843064178</v>
       </c>
       <c r="C82">
-        <v>138.2027529721427</v>
+        <v>137.2139011919031</v>
       </c>
       <c r="D82">
-        <v>-62.88615498439704</v>
+        <v>-62.6553161980023</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.006833333333333344</v>
       </c>
       <c r="B83">
-        <v>-71.22945948862231</v>
+        <v>-71.52440968351438</v>
       </c>
       <c r="C83">
-        <v>139.4723394376303</v>
+        <v>142.0466014582075</v>
       </c>
       <c r="D83">
-        <v>-66.68289612901418</v>
+        <v>-68.2189884106274</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.006916666666666678</v>
       </c>
       <c r="B84">
-        <v>-67.25632218209211</v>
+        <v>-68.24003381628391</v>
       </c>
       <c r="C84">
-        <v>140.0839718824627</v>
+        <v>142.140080394718</v>
       </c>
       <c r="D84">
-        <v>-71.10851246376727</v>
+        <v>-71.53262782377047</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.007000000000000011</v>
       </c>
       <c r="B85">
-        <v>-62.36277797647766</v>
+        <v>-62.67407877776326</v>
       </c>
       <c r="C85">
-        <v>137.3984645195634</v>
+        <v>137.3652756014131</v>
       </c>
       <c r="D85">
-        <v>-75.32209274176415</v>
+        <v>-74.86526367843361</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.007083333333333345</v>
       </c>
       <c r="B86">
-        <v>-59.68053239401028</v>
+        <v>-58.22691387487033</v>
       </c>
       <c r="C86">
-        <v>137.9997254118659</v>
+        <v>134.4564734912778</v>
       </c>
       <c r="D86">
-        <v>-85.72710121574956</v>
+        <v>-85.16387113254781</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.007166666666666679</v>
       </c>
       <c r="B87">
-        <v>-44.59438413822098</v>
+        <v>-46.10915510088159</v>
       </c>
       <c r="C87">
-        <v>129.4894855969351</v>
+        <v>130.6822961742066</v>
       </c>
       <c r="D87">
-        <v>-100.8719882445888</v>
+        <v>-102.4697016329945</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.007250000000000013</v>
       </c>
       <c r="B88">
-        <v>-24.54789289991266</v>
+        <v>-25.91234725868086</v>
       </c>
       <c r="C88">
-        <v>134.580781903446</v>
+        <v>134.9457082268191</v>
       </c>
       <c r="D88">
-        <v>-118.5629365846216</v>
+        <v>-118.1393843922271</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.007333333333333346</v>
       </c>
       <c r="B89">
-        <v>-8.209944314123975</v>
+        <v>-8.798234241642334</v>
       </c>
       <c r="C89">
-        <v>142.4913436415968</v>
+        <v>140.1263581249707</v>
       </c>
       <c r="D89">
-        <v>-130.5027460001152</v>
+        <v>-128.9188905801904</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00741666666666668</v>
       </c>
       <c r="B90">
-        <v>-2.064869097552213</v>
+        <v>-1.632536144128005</v>
       </c>
       <c r="C90">
-        <v>140.8567308764495</v>
+        <v>141.5269154872648</v>
       </c>
       <c r="D90">
-        <v>-132.0639802580911</v>
+        <v>-135.0007436931233</v>
       </c>
     </row>
   </sheetData>
